--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_24.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_24.xlsx
@@ -1253,7 +1253,7 @@
         <v>-45752811.059999987</v>
       </c>
       <c r="E14" s="1">
-        <v>637985.22</v>
+        <v>537985.22</v>
       </c>
       <c r="F14" s="1">
         <v>44875817.619999997</v>
@@ -1399,7 +1399,8 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>1447134856</v>
+        <f>SUM(E12:E17)</f>
+        <v>1447134855.46</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1513,7 +1514,8 @@
         <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
-        <v>1062434856</v>
+        <f>SUM(E18:E20)</f>
+        <v>1062434855.46</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>1042419231</v>
+        <v>1042419230.46</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1640,7 +1642,7 @@
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>10.233500845897511</v>
+        <v>1.0233708160196173</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1678,7 +1680,7 @@
         <v>1009991810.1331247</v>
       </c>
       <c r="E26" s="1">
-        <v>101863404</v>
+        <v>1018613404</v>
       </c>
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
@@ -1731,11 +1733,11 @@
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>8.7074458646764032</v>
+        <v>-2.9235747805434569E-2</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-0.90307651776268782</v>
+        <v>-3.0784812370636828E-2</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>2.8620076955805089</v>
+        <v>1.0199816896049303</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
